--- a/data/references.xlsx
+++ b/data/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\ECE-Boards-Practice_st\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5EC7A-FA45-4917-BC45-4A4447F94FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F65365-CE62-40E8-B72A-79C3E1FB19AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B9B58EA0-1602-4821-918F-71A48BC8E104}"/>
   </bookViews>
@@ -18,8 +18,12 @@
     <sheet name="mnemonic_guide" sheetId="4" r:id="rId3"/>
     <sheet name="formulas" sheetId="5" r:id="rId4"/>
     <sheet name="circuits" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="394">
   <si>
     <t>Description</t>
   </si>
@@ -725,6 +729,504 @@
   </si>
   <si>
     <t>ckt_img</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Astable Multivibrator</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>ckt_astableMultivibrator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_colpittsOscillator_BJT.jpg</t>
+  </si>
+  <si>
+    <t>Colpitts Oscillator</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Hartley Oscillator</t>
+  </si>
+  <si>
+    <t>ckt_HartleyOscillator.jpg</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Integrator</t>
+  </si>
+  <si>
+    <t>Op Amp v1</t>
+  </si>
+  <si>
+    <t>ckt_integrator_1.jpg</t>
+  </si>
+  <si>
+    <t>Clapp Oscillator</t>
+  </si>
+  <si>
+    <t>ckt_ClappOscillator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_phaseShiftOscillator.jpg</t>
+  </si>
+  <si>
+    <t>Phase Shift Oscillator</t>
+  </si>
+  <si>
+    <t>ckt_wienBridgeOscillator.jpg</t>
+  </si>
+  <si>
+    <t>Wien Bridge Oscillator</t>
+  </si>
+  <si>
+    <t>ckt_highPassFilter.jpg</t>
+  </si>
+  <si>
+    <t>High Pass Filter</t>
+  </si>
+  <si>
+    <t>ckt_highPassFilter_1.jpg</t>
+  </si>
+  <si>
+    <t>2-Level Op-Amp</t>
+  </si>
+  <si>
+    <t>ckt_lowPassFilter.jpg</t>
+  </si>
+  <si>
+    <t>Low Pass Filter</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>Op-Amp v1</t>
+  </si>
+  <si>
+    <t>ckt_bandPassFilter.jpg</t>
+  </si>
+  <si>
+    <t>Band Pass Filter</t>
+  </si>
+  <si>
+    <t>negative edge triggered flip flop</t>
+  </si>
+  <si>
+    <t>ckt_negEdgeTriggeredFlipFlop.jpg</t>
+  </si>
+  <si>
+    <t>ckt_differentiator.jpg</t>
+  </si>
+  <si>
+    <t>Differentiator</t>
+  </si>
+  <si>
+    <t>ckt_positiveLogicANDGate.png</t>
+  </si>
+  <si>
+    <t>Positive Logic AND gate</t>
+  </si>
+  <si>
+    <t>Full Wave Rectifier</t>
+  </si>
+  <si>
+    <t>ckt_fullWaveRectifier.jpg</t>
+  </si>
+  <si>
+    <t>ckt_clipper.jpg</t>
+  </si>
+  <si>
+    <t>Clipper</t>
+  </si>
+  <si>
+    <t>ckt_halfWaveRectifier.jpg</t>
+  </si>
+  <si>
+    <t>Half Wave Rectifier</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>ckt_monostableMultivibrator.jpg</t>
+  </si>
+  <si>
+    <t>Monostable multivibrator</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>ckt_comparator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_highIsolationANDGate.jpg</t>
+  </si>
+  <si>
+    <t>High Isolation AND Gate</t>
+  </si>
+  <si>
+    <t>ckt_totemPole.jpg</t>
+  </si>
+  <si>
+    <t>Totem Pole</t>
+  </si>
+  <si>
+    <t>ckt_InvertingAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>Inverting Amplifier</t>
+  </si>
+  <si>
+    <t>ckt_antiLogAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>Anti-Log Amplifier</t>
+  </si>
+  <si>
+    <t>ckt_voltageFollower.jpg</t>
+  </si>
+  <si>
+    <t>Voltage Follower</t>
+  </si>
+  <si>
+    <t>ckt_nonInvertingAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>Non-Inverting Amplifier</t>
+  </si>
+  <si>
+    <t>JFET shunt switching circuit</t>
+  </si>
+  <si>
+    <t>ckt_JFETShuntSwitchingCkt.jpg</t>
+  </si>
+  <si>
+    <t>Double-ended (differential) input</t>
+  </si>
+  <si>
+    <t>ckt_doubleEndedOutput.jpg</t>
+  </si>
+  <si>
+    <t>Instrumentation Amplifier</t>
+  </si>
+  <si>
+    <t>ckt_intrumentationAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>Ladder Network</t>
+  </si>
+  <si>
+    <t>ckt_ladderNetwork.png</t>
+  </si>
+  <si>
+    <t>ckt_integrator.jpg</t>
+  </si>
+  <si>
+    <t>ckt_SeriesPassVoltageRegulator.jpg</t>
+  </si>
+  <si>
+    <t>Series-pass Voltage Regulator</t>
+  </si>
+  <si>
+    <t>ckt_peakDetector.jpg</t>
+  </si>
+  <si>
+    <t>Peak Detector</t>
+  </si>
+  <si>
+    <t>ckt_singleEndedInput.jpg</t>
+  </si>
+  <si>
+    <t>Single-Ended Input</t>
+  </si>
+  <si>
+    <t>ckt_currentToVoltageConverter.jpg</t>
+  </si>
+  <si>
+    <t>Current-to-Voltage Converter</t>
+  </si>
+  <si>
+    <t>ckt_constantVoltageSrc.jpg</t>
+  </si>
+  <si>
+    <t>Constant Voltage Source</t>
+  </si>
+  <si>
+    <t>ckt_lowPassFilter_1.jpg</t>
+  </si>
+  <si>
+    <t>ckt_weinBridgeOscillator.jpg</t>
+  </si>
+  <si>
+    <t>Wein Bridge Oscillator</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>ckt_SCS.png</t>
+  </si>
+  <si>
+    <t>ckt_PositiveClamper.jpg</t>
+  </si>
+  <si>
+    <t>Positive Clamper</t>
+  </si>
+  <si>
+    <t>ckt_logAmplifier.jpg</t>
+  </si>
+  <si>
+    <t>Logarithmic Amplifier</t>
+  </si>
+  <si>
+    <t>ckt_stepDownSwitchingRegulator.jpg</t>
+  </si>
+  <si>
+    <t>Step-down switching regulator</t>
+  </si>
+  <si>
+    <t>ckt_OTA.png</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>ckt_SCS2.png</t>
+  </si>
+  <si>
+    <t>ckt_constantCurrentSource.jpg</t>
+  </si>
+  <si>
+    <t>Constant Current Source</t>
+  </si>
+  <si>
+    <t>ckt_transresistanceAmpWithOpenCktMutResRF.jpg</t>
+  </si>
+  <si>
+    <t>Transresistance amplifier with open circuit mutual resistance RF</t>
+  </si>
+  <si>
+    <t>ckt_clappOscillator_1.jpg</t>
+  </si>
+  <si>
+    <t>ckt_shuntVoltage.jpg</t>
+  </si>
+  <si>
+    <t>Shunt Voltage</t>
+  </si>
+  <si>
+    <t>ckt_N-channel_MOSFET.png</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>ckt_ADC.jpg</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>ckt_combinationClipper.jpg</t>
+  </si>
+  <si>
+    <t>Combination Clipper</t>
+  </si>
+  <si>
+    <t>ckt_complementaryMirror.jpg</t>
+  </si>
+  <si>
+    <t>Complementary Mirror</t>
+  </si>
+  <si>
+    <t>ckt_Subtractor.jpg</t>
+  </si>
+  <si>
+    <t>Subtractor</t>
+  </si>
+  <si>
+    <t>ckt_VaricapDiodeEqCkt.png</t>
+  </si>
+  <si>
+    <t>Varicap Diode - Equivalent Circuit</t>
+  </si>
+  <si>
+    <t>ckt_astableMultiVib.jpg</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>Terminal Names</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>_main</t>
+  </si>
+  <si>
+    <t>op-amp v1</t>
   </si>
 </sst>
 </file>
@@ -766,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -791,17 +1293,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -834,6 +1339,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -849,13 +1361,891 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="John Paul Asensi" refreshedDate="45220.780704166667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{806A4835-ED0A-40BB-9F13-A8E700908950}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table4"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="ckt_id" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="48">
+        <s v="Astable Multivibrator"/>
+        <s v="Colpitts Oscillator"/>
+        <s v="Hartley Oscillator"/>
+        <s v="Integrator"/>
+        <s v="Clapp Oscillator"/>
+        <s v="Phase Shift Oscillator"/>
+        <s v="Wien Bridge Oscillator"/>
+        <s v="High Pass Filter"/>
+        <s v="Low Pass Filter"/>
+        <s v="Band Pass Filter"/>
+        <s v="negative edge triggered flip flop"/>
+        <s v="Differentiator"/>
+        <s v="Positive Logic AND gate"/>
+        <s v="Full Wave Rectifier"/>
+        <s v="Clipper"/>
+        <s v="Half Wave Rectifier"/>
+        <s v="Monostable multivibrator"/>
+        <s v="Comparator"/>
+        <s v="High Isolation AND Gate"/>
+        <s v="Totem Pole"/>
+        <s v="Inverting Amplifier"/>
+        <s v="Anti-Log Amplifier"/>
+        <s v="Voltage Follower"/>
+        <s v="Non-Inverting Amplifier"/>
+        <s v="JFET shunt switching circuit"/>
+        <s v="Double-ended (differential) input"/>
+        <s v="Instrumentation Amplifier"/>
+        <s v="Ladder Network"/>
+        <s v="Series-pass Voltage Regulator"/>
+        <s v="Peak Detector"/>
+        <s v="Single-Ended Input"/>
+        <s v="Current-to-Voltage Converter"/>
+        <s v="Constant Voltage Source"/>
+        <s v="Wein Bridge Oscillator"/>
+        <s v="SCS"/>
+        <s v="Positive Clamper"/>
+        <s v="Logarithmic Amplifier"/>
+        <s v="Step-down switching regulator"/>
+        <s v="OTA"/>
+        <s v="Constant Current Source"/>
+        <s v="Transresistance amplifier with open circuit mutual resistance RF"/>
+        <s v="Shunt Voltage"/>
+        <s v="N-Channel MOSFET"/>
+        <s v="ADC"/>
+        <s v="Combination Clipper"/>
+        <s v="Complementary Mirror"/>
+        <s v="Subtractor"/>
+        <s v="Varicap Diode - Equivalent Circuit"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="version" numFmtId="0">
+      <sharedItems count="6">
+        <s v="v1"/>
+        <s v="_main"/>
+        <s v="Op Amp v1"/>
+        <s v="2-Level Op-Amp"/>
+        <s v="Op-Amp v1"/>
+        <s v="Terminal Names"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="description" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ckt_img" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+  <r>
+    <s v="001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="ckt_astableMultivibrator.jpg"/>
+  </r>
+  <r>
+    <s v="002"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_colpittsOscillator_BJT.jpg"/>
+  </r>
+  <r>
+    <s v="003"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_HartleyOscillator.jpg"/>
+  </r>
+  <r>
+    <s v="004"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <s v="ckt_integrator_1.jpg"/>
+  </r>
+  <r>
+    <s v="005"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_ClappOscillator.jpg"/>
+  </r>
+  <r>
+    <s v="006"/>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_phaseShiftOscillator.jpg"/>
+  </r>
+  <r>
+    <s v="007"/>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_wienBridgeOscillator.jpg"/>
+  </r>
+  <r>
+    <s v="008"/>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_highPassFilter.jpg"/>
+  </r>
+  <r>
+    <s v="009"/>
+    <x v="7"/>
+    <x v="3"/>
+    <m/>
+    <s v="ckt_highPassFilter_1.jpg"/>
+  </r>
+  <r>
+    <s v="010"/>
+    <x v="8"/>
+    <x v="4"/>
+    <m/>
+    <s v="ckt_lowPassFilter.jpg"/>
+  </r>
+  <r>
+    <s v="011"/>
+    <x v="9"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_bandPassFilter.jpg"/>
+  </r>
+  <r>
+    <s v="012"/>
+    <x v="10"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_negEdgeTriggeredFlipFlop.jpg"/>
+  </r>
+  <r>
+    <s v="013"/>
+    <x v="11"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_differentiator.jpg"/>
+  </r>
+  <r>
+    <s v="014"/>
+    <x v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_positiveLogicANDGate.png"/>
+  </r>
+  <r>
+    <s v="015"/>
+    <x v="13"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_fullWaveRectifier.jpg"/>
+  </r>
+  <r>
+    <s v="016"/>
+    <x v="14"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_clipper.jpg"/>
+  </r>
+  <r>
+    <s v="017"/>
+    <x v="15"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_halfWaveRectifier.jpg"/>
+  </r>
+  <r>
+    <s v="018"/>
+    <x v="16"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_monostableMultivibrator.jpg"/>
+  </r>
+  <r>
+    <s v="019"/>
+    <x v="17"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_comparator.jpg"/>
+  </r>
+  <r>
+    <s v="021"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_highIsolationANDGate.jpg"/>
+  </r>
+  <r>
+    <s v="022"/>
+    <x v="19"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_totemPole.jpg"/>
+  </r>
+  <r>
+    <s v="023"/>
+    <x v="20"/>
+    <x v="0"/>
+    <m/>
+    <s v="ckt_InvertingAmplifier.jpg"/>
+  </r>
+  <r>
+    <s v="024"/>
+    <x v="21"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_antiLogAmplifier.jpg"/>
+  </r>
+  <r>
+    <s v="025"/>
+    <x v="22"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_voltageFollower.jpg"/>
+  </r>
+  <r>
+    <s v="026"/>
+    <x v="23"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_nonInvertingAmplifier.jpg"/>
+  </r>
+  <r>
+    <s v="027"/>
+    <x v="24"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_JFETShuntSwitchingCkt.jpg"/>
+  </r>
+  <r>
+    <s v="028"/>
+    <x v="25"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_doubleEndedOutput.jpg"/>
+  </r>
+  <r>
+    <s v="029"/>
+    <x v="26"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_intrumentationAmplifier.jpg"/>
+  </r>
+  <r>
+    <s v="030"/>
+    <x v="27"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_ladderNetwork.png"/>
+  </r>
+  <r>
+    <s v="031"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <s v="ckt_integrator_1.jpg"/>
+  </r>
+  <r>
+    <s v="032"/>
+    <x v="28"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_SeriesPassVoltageRegulator.jpg"/>
+  </r>
+  <r>
+    <s v="033"/>
+    <x v="29"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_peakDetector.jpg"/>
+  </r>
+  <r>
+    <s v="034"/>
+    <x v="30"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_singleEndedInput.jpg"/>
+  </r>
+  <r>
+    <s v="035"/>
+    <x v="31"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_currentToVoltageConverter.jpg"/>
+  </r>
+  <r>
+    <s v="036"/>
+    <x v="32"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_constantVoltageSrc.jpg"/>
+  </r>
+  <r>
+    <s v="037"/>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_lowPassFilter_1.jpg"/>
+  </r>
+  <r>
+    <s v="038"/>
+    <x v="33"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_weinBridgeOscillator.jpg"/>
+  </r>
+  <r>
+    <s v="039"/>
+    <x v="34"/>
+    <x v="5"/>
+    <m/>
+    <s v="ckt_SCS.png"/>
+  </r>
+  <r>
+    <s v="040"/>
+    <x v="35"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_PositiveClamper.jpg"/>
+  </r>
+  <r>
+    <s v="041"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_integrator.jpg"/>
+  </r>
+  <r>
+    <s v="042"/>
+    <x v="36"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_logAmplifier.jpg"/>
+  </r>
+  <r>
+    <s v="043"/>
+    <x v="37"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_stepDownSwitchingRegulator.jpg"/>
+  </r>
+  <r>
+    <s v="044"/>
+    <x v="38"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_OTA.png"/>
+  </r>
+  <r>
+    <s v="045"/>
+    <x v="34"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_SCS2.png"/>
+  </r>
+  <r>
+    <s v="046"/>
+    <x v="39"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_constantCurrentSource.jpg"/>
+  </r>
+  <r>
+    <s v="047"/>
+    <x v="40"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_transresistanceAmpWithOpenCktMutResRF.jpg"/>
+  </r>
+  <r>
+    <s v="048"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_clappOscillator_1.jpg"/>
+  </r>
+  <r>
+    <s v="049"/>
+    <x v="41"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_shuntVoltage.jpg"/>
+  </r>
+  <r>
+    <s v="050"/>
+    <x v="42"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_N-channel_MOSFET.png"/>
+  </r>
+  <r>
+    <s v="051"/>
+    <x v="43"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_ADC.jpg"/>
+  </r>
+  <r>
+    <s v="052"/>
+    <x v="44"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_combinationClipper.jpg"/>
+  </r>
+  <r>
+    <s v="053"/>
+    <x v="45"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_complementaryMirror.jpg"/>
+  </r>
+  <r>
+    <s v="054"/>
+    <x v="46"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_Subtractor.jpg"/>
+  </r>
+  <r>
+    <s v="055"/>
+    <x v="47"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_VaricapDiodeEqCkt.png"/>
+  </r>
+  <r>
+    <s v="056"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="ckt_astableMultiVib.jpg"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E60E68E-A664-407A-BAB4-05D20643F375}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:A104" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="49">
+        <item x="43"/>
+        <item x="21"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="44"/>
+        <item x="17"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="11"/>
+        <item x="25"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="42"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="38"/>
+        <item x="29"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="12"/>
+        <item x="34"/>
+        <item x="28"/>
+        <item x="41"/>
+        <item x="30"/>
+        <item x="37"/>
+        <item x="46"/>
+        <item x="19"/>
+        <item x="40"/>
+        <item x="47"/>
+        <item x="22"/>
+        <item x="33"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="103">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3ED7A09-F85C-4887-9094-C989B2C7C2B3}" name="Table1" displayName="Table1" ref="A1:H61" totalsRowShown="0">
   <autoFilter ref="A1:H61" xr:uid="{A3ED7A09-F85C-4887-9094-C989B2C7C2B3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{34DE4247-F2C4-42FA-A398-D24CAACEF862}" name="ID"/>
     <tableColumn id="7" xr3:uid="{856A0447-047E-458C-8392-FF1E7B6F0879}" name="Topic"/>
-    <tableColumn id="8" xr3:uid="{FC898B27-AE88-4209-9095-1CEDEE067462}" name="Constant Name" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FC898B27-AE88-4209-9095-1CEDEE067462}" name="Constant Name" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{13FB106A-07B0-42BA-84EA-95DF4530CAC1}" name="Table Name" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{BCA7F2BF-5E6B-4F18-BCDC-196802F71BDF}" name="Description" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{F27962DD-39CB-44CF-B8B3-F2F6B329EABC}" name="Value"/>
@@ -874,7 +2264,7 @@
     <tableColumn id="2" xr3:uid="{5431BAC3-1C7B-4C13-A57B-F7D7FDB67984}" name="name"/>
     <tableColumn id="3" xr3:uid="{65000E9F-A972-45D5-B54A-A5D4F5AADCC9}" name="subject"/>
     <tableColumn id="4" xr3:uid="{59204830-4A98-4065-97C0-4E2CF56C682E}" name="tags"/>
-    <tableColumn id="5" xr3:uid="{CD074643-4D39-4DC5-980C-D4BDC7D1B5DC}" name="description" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{CD074643-4D39-4DC5-980C-D4BDC7D1B5DC}" name="description" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{1D3DC2E6-8EE6-4FC2-AB4D-0101BA4FBE09}" name="related_img"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -882,30 +2272,38 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{11D35C51-DD60-4183-A56A-52F13FFF4146}" name="Table3" displayName="Table3" ref="A1:H3" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{11D35C51-DD60-4183-A56A-52F13FFF4146}" name="Table3" displayName="Table3" ref="A1:H3" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:H3" xr:uid="{11D35C51-DD60-4183-A56A-52F13FFF4146}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EF148E3C-9E43-471A-B3A1-B57AF11DC0F7}" name="formula_id" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{02358E81-B4B0-4B12-82F0-3707F57F1708}" name="subject" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{AD054E70-7E32-48DB-95B2-E0CCBF407BC5}" name="topic" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{75999B3A-6B05-4AB7-A450-782189C419D6}" name="formula_latex" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{85DBB8D2-964A-45C2-92E2-9E45B8278181}" name="name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00DDC3C3-F1C0-4F33-B67C-0CE68C1691A3}" name="description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{DC456E6B-F1A4-4080-BF8E-81AA9621549B}" name="where_latex" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0CA92670-17FB-4465-A67E-62918916CEE4}" name="formula_img" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EF148E3C-9E43-471A-B3A1-B57AF11DC0F7}" name="formula_id" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{02358E81-B4B0-4B12-82F0-3707F57F1708}" name="subject" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{AD054E70-7E32-48DB-95B2-E0CCBF407BC5}" name="topic" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{75999B3A-6B05-4AB7-A450-782189C419D6}" name="formula_latex" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{85DBB8D2-964A-45C2-92E2-9E45B8278181}" name="name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00DDC3C3-F1C0-4F33-B67C-0CE68C1691A3}" name="description" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{DC456E6B-F1A4-4080-BF8E-81AA9621549B}" name="where_latex" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0CA92670-17FB-4465-A67E-62918916CEE4}" name="formula_img" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{182E6534-02A8-45CD-BF68-EC2D839CD800}" name="Table4" displayName="Table4" ref="A1:D2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{182E6534-02A8-45CD-BF68-EC2D839CD800}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{182E6534-02A8-45CD-BF68-EC2D839CD800}" name="Table4" displayName="Table4" ref="A1:E55" totalsRowShown="0">
+  <autoFilter ref="A1:E55" xr:uid="{182E6534-02A8-45CD-BF68-EC2D839CD800}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Wein Bridge Oscillator"/>
+        <filter val="Wien Bridge Oscillator"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{30F37652-C9E7-46EF-AC9B-7B82FB451488}" name="ckt_id"/>
     <tableColumn id="2" xr3:uid="{B447F3C8-34AA-47DF-9C7D-47F0996EE18B}" name="name"/>
+    <tableColumn id="5" xr3:uid="{63B77A9B-691D-461E-9993-5FB79E2AFDB1}" name="version"/>
     <tableColumn id="3" xr3:uid="{6AF776ED-B8C0-49CD-858F-8A9BDDA86410}" name="description"/>
-    <tableColumn id="4" xr3:uid="{85370326-56A6-4F60-BF19-6066147ABF92}" name="ckt_img"/>
+    <tableColumn id="4" xr3:uid="{85370326-56A6-4F60-BF19-6066147ABF92}" name="ckt_img" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2738,20 +4136,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530C7024-52E4-40AE-81F6-92EABDCD763B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>226</v>
       </c>
@@ -2759,16 +4159,1317 @@
         <v>143</v>
       </c>
       <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>227</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
+        <v>392</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" t="s">
+        <v>392</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" t="s">
+        <v>389</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" t="s">
+        <v>392</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" t="s">
+        <v>392</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" t="s">
+        <v>392</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s">
+        <v>392</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" t="s">
+        <v>392</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" t="s">
+        <v>392</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B49" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" t="s">
+        <v>392</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" t="s">
+        <v>392</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C51" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B52" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" t="s">
+        <v>350</v>
+      </c>
+      <c r="C54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" t="s">
+        <v>392</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC05FA3-BCE7-488F-AB9E-4A30D68E5060}">
+  <dimension ref="A1:A104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>